--- a/Documentation and designs/Sprint_info/Sprint6.xlsx
+++ b/Documentation and designs/Sprint_info/Sprint6.xlsx
@@ -16,6 +16,9 @@
     <sheet name="Sprint" sheetId="1" r:id="rId2"/>
     <sheet name="Chart" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -418,6 +421,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,22 +445,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -464,7 +467,7 @@
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="21">
     <dxf>
       <font>
         <color theme="0"/>
@@ -599,71 +602,6 @@
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1964,6 +1902,19 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Roster"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2274,21 +2225,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
@@ -2297,10 +2248,10 @@
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="14" t="s">
         <v>7</v>
       </c>
@@ -2309,10 +2260,10 @@
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
@@ -2321,10 +2272,10 @@
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="15" t="s">
         <v>10</v>
       </c>
@@ -2345,24 +2296,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="5.7109375" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="5.7109375" customWidth="1"/>
-    <col min="16" max="19" width="6.7109375" customWidth="1"/>
-    <col min="20" max="20" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -2449,514 +2397,516 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="27">
         <v>5</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="19">
         <v>0</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27">
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19">
         <f t="shared" ref="U5:U13" si="0">E5-SUM(G5:T5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="27" t="s">
+    <row r="6" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="19">
         <v>2</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27">
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="27" t="s">
+    <row r="7" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19">
         <v>1</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27">
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="27">
         <v>8</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19">
         <v>5</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27">
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="27" t="s">
+    <row r="9" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19">
         <v>5</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="27" t="s">
+    <row r="10" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19">
         <v>1</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27">
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="27">
         <v>3</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="19">
         <v>0</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27">
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="27" t="s">
+    <row r="12" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="19">
         <v>1</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27">
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="27" t="s">
+    <row r="13" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27">
+      <c r="D13" s="19"/>
+      <c r="E13" s="19">
         <v>1</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27">
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="27">
         <v>8</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27">
+      <c r="D14" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="19">
         <v>5</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27">
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19">
         <f t="shared" ref="U14:U19" si="1">E14-SUM(G14:T14)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="27" t="s">
+    <row r="15" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27">
+      <c r="D15" s="19"/>
+      <c r="E15" s="19">
         <v>2</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27">
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="27" t="s">
+    <row r="16" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27">
+      <c r="D16" s="19"/>
+      <c r="E16" s="19">
         <v>1</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27">
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="27">
         <v>3</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="19">
         <v>0</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27">
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="27" t="s">
+    <row r="18" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="19">
         <v>1</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27">
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="27" t="s">
+    <row r="19" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19">
         <v>1</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27">
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2977,63 +2927,63 @@
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="2">
-        <f>SUM(G5:G19)</f>
+        <f t="shared" ref="G20:T20" si="2">SUM(G5:G19)</f>
         <v>0</v>
       </c>
       <c r="H20" s="2">
-        <f>SUM(H5:H19)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I20" s="2">
-        <f>SUM(I5:I19)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J20" s="2">
-        <f>SUM(J5:J19)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K20" s="2">
-        <f>SUM(K5:K19)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L20" s="2">
-        <f>SUM(L5:L19)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M20" s="2">
-        <f>SUM(M5:M19)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <f>SUM(N5:N19)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O20" s="2">
-        <f>SUM(O5:O19)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <f>SUM(P5:P19)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q20" s="2">
-        <f>SUM(Q5:Q19)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R20" s="2">
-        <f>SUM(R5:R19)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S20" s="2">
-        <f>SUM(S5:S19)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T20" s="2">
-        <f>SUM(T5:T19)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U20" s="2">
-        <f t="shared" ref="U6:U20" si="2">E20-SUM(G20:T20)</f>
+        <f t="shared" ref="U20" si="3">E20-SUM(G20:T20)</f>
         <v>26</v>
       </c>
     </row>
@@ -3120,59 +3070,59 @@
         <v>26</v>
       </c>
       <c r="G22" s="2">
-        <f>F22-SUM(G5:G19)</f>
+        <f t="shared" ref="G22:T22" si="4">F22-SUM(G5:G19)</f>
         <v>26</v>
       </c>
       <c r="H22" s="2">
-        <f>G22-SUM(H5:H19)</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="I22" s="2">
-        <f>H22-SUM(I5:I19)</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="J22" s="2">
-        <f>I22-SUM(J5:J19)</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="K22" s="2">
-        <f>J22-SUM(K5:K19)</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L22" s="2">
-        <f>K22-SUM(L5:L19)</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="M22" s="2">
-        <f>L22-SUM(M5:M19)</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="N22" s="2">
-        <f>M22-SUM(N5:N19)</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="O22" s="2">
-        <f>N22-SUM(O5:O19)</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="P22" s="2">
-        <f>O22-SUM(P5:P19)</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="Q22" s="2">
-        <f>P22-SUM(Q5:Q19)</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="R22" s="2">
-        <f>Q22-SUM(R5:R19)</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="S22" s="2">
-        <f>R22-SUM(S5:S19)</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="T22" s="2">
-        <f>S22-SUM(T5:T19)</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="U22" s="10"/>
@@ -3221,7 +3171,7 @@
     <mergeCell ref="B14:B16"/>
   </mergeCells>
   <conditionalFormatting sqref="U20">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3317,9 +3267,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="491" yWindow="329" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a valid name" promptTitle="Names" prompt="Enter assignee">
           <x14:formula1>
-            <xm:f>[Sprint5.xlsx]Roster!#REF!</xm:f>
+            <xm:f>Roster!$A$3:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D19</xm:sqref>
+          <xm:sqref>D1:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3331,7 +3281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/Documentation and designs/Sprint_info/Sprint6.xlsx
+++ b/Documentation and designs/Sprint_info/Sprint6.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,9 +16,6 @@
     <sheet name="Sprint" sheetId="1" r:id="rId2"/>
     <sheet name="Chart" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -977,7 +974,7 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1902,19 +1899,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Roster"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2297,7 +2281,7 @@
   <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2858,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
@@ -2873,10 +2857,12 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
+      <c r="T18" s="19">
+        <v>1</v>
+      </c>
       <c r="U18" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2885,12 +2871,14 @@
       <c r="C19" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="19" t="s">
+        <v>6</v>
+      </c>
       <c r="E19" s="19">
         <v>1</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
@@ -2905,10 +2893,12 @@
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
       <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
+      <c r="T19" s="19">
+        <v>1</v>
+      </c>
       <c r="U19" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2980,11 +2970,11 @@
       </c>
       <c r="T20" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U20" s="2">
         <f t="shared" ref="U20" si="3">E20-SUM(G20:T20)</f>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -3123,7 +3113,7 @@
       </c>
       <c r="T22" s="2">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U22" s="10"/>
     </row>
